--- a/natmiOut/OldD0/LR-pairs_lrc2p/Tgm2-Sdc4.xlsx
+++ b/natmiOut/OldD0/LR-pairs_lrc2p/Tgm2-Sdc4.xlsx
@@ -528,52 +528,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>77.05871544411281</v>
+        <v>96.17831799999999</v>
       </c>
       <c r="H2">
-        <v>77.05871544411281</v>
+        <v>288.534954</v>
       </c>
       <c r="I2">
-        <v>0.6806554309319663</v>
+        <v>0.7237598617297997</v>
       </c>
       <c r="J2">
-        <v>0.6806554309319663</v>
+        <v>0.7237598617297996</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>2.08305618975619</v>
+        <v>2.324764666666667</v>
       </c>
       <c r="N2">
-        <v>2.08305618975619</v>
+        <v>6.974294</v>
       </c>
       <c r="O2">
-        <v>0.04036827853697785</v>
+        <v>0.04473923998638302</v>
       </c>
       <c r="P2">
-        <v>0.04036827853697785</v>
+        <v>0.04473923998638301</v>
       </c>
       <c r="Q2">
-        <v>160.5176341805201</v>
+        <v>223.5919553858307</v>
       </c>
       <c r="R2">
-        <v>160.5176341805201</v>
+        <v>2012.327598472476</v>
       </c>
       <c r="S2">
-        <v>0.02747688802356831</v>
+        <v>0.0323804661464409</v>
       </c>
       <c r="T2">
-        <v>0.02747688802356831</v>
+        <v>0.03238046614644088</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,52 +590,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>77.05871544411281</v>
+        <v>96.17831799999999</v>
       </c>
       <c r="H3">
-        <v>77.05871544411281</v>
+        <v>288.534954</v>
       </c>
       <c r="I3">
-        <v>0.6806554309319663</v>
+        <v>0.7237598617297997</v>
       </c>
       <c r="J3">
-        <v>0.6806554309319663</v>
+        <v>0.7237598617297996</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>19.2737616600021</v>
+        <v>19.27491966666667</v>
       </c>
       <c r="N3">
-        <v>19.2737616600021</v>
+        <v>57.824759</v>
       </c>
       <c r="O3">
-        <v>0.3735130060209061</v>
+        <v>0.3709387315842666</v>
       </c>
       <c r="P3">
-        <v>0.3735130060209061</v>
+        <v>0.3709387315842665</v>
       </c>
       <c r="Q3">
-        <v>1485.211315295753</v>
+        <v>1853.82935312512</v>
       </c>
       <c r="R3">
-        <v>1485.211315295753</v>
+        <v>16684.46417812608</v>
       </c>
       <c r="S3">
-        <v>0.254233656071854</v>
+        <v>0.2684705650816561</v>
       </c>
       <c r="T3">
-        <v>0.254233656071854</v>
+        <v>0.268470565081656</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,52 +652,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>77.05871544411281</v>
+        <v>96.17831799999999</v>
       </c>
       <c r="H4">
-        <v>77.05871544411281</v>
+        <v>288.534954</v>
       </c>
       <c r="I4">
-        <v>0.6806554309319663</v>
+        <v>0.7237598617297997</v>
       </c>
       <c r="J4">
-        <v>0.6806554309319663</v>
+        <v>0.7237598617297996</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>30.2444954895778</v>
+        <v>30.36285833333334</v>
       </c>
       <c r="N4">
-        <v>30.2444954895778</v>
+        <v>91.08857500000001</v>
       </c>
       <c r="O4">
-        <v>0.5861187154421161</v>
+        <v>0.5843220284293504</v>
       </c>
       <c r="P4">
-        <v>0.5861187154421161</v>
+        <v>0.5843220284293504</v>
       </c>
       <c r="Q4">
-        <v>2330.601971682129</v>
+        <v>2920.248644172283</v>
       </c>
       <c r="R4">
-        <v>2330.601971682129</v>
+        <v>26282.23779755055</v>
       </c>
       <c r="S4">
-        <v>0.3989448868365441</v>
+        <v>0.4229088305017027</v>
       </c>
       <c r="T4">
-        <v>0.3989448868365441</v>
+        <v>0.4229088305017027</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,52 +714,52 @@
         <v>20</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>13.1160059288668</v>
+        <v>13.23504133333333</v>
       </c>
       <c r="H5">
-        <v>13.1160059288668</v>
+        <v>39.705124</v>
       </c>
       <c r="I5">
-        <v>0.1158529650561558</v>
+        <v>0.09959616558694152</v>
       </c>
       <c r="J5">
-        <v>0.1158529650561558</v>
+        <v>0.0995961655869415</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>2.08305618975619</v>
+        <v>2.324764666666667</v>
       </c>
       <c r="N5">
-        <v>2.08305618975619</v>
+        <v>6.974294</v>
       </c>
       <c r="O5">
-        <v>0.04036827853697785</v>
+        <v>0.04473923998638302</v>
       </c>
       <c r="P5">
-        <v>0.04036827853697785</v>
+        <v>0.04473923998638301</v>
       </c>
       <c r="Q5">
-        <v>27.32137733500487</v>
+        <v>30.76835645360622</v>
       </c>
       <c r="R5">
-        <v>27.32137733500487</v>
+        <v>276.915208082456</v>
       </c>
       <c r="S5">
-        <v>0.004676784762721661</v>
+        <v>0.004455856753917718</v>
       </c>
       <c r="T5">
-        <v>0.004676784762721661</v>
+        <v>0.004455856753917717</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,52 +776,52 @@
         <v>21</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>13.1160059288668</v>
+        <v>13.23504133333333</v>
       </c>
       <c r="H6">
-        <v>13.1160059288668</v>
+        <v>39.705124</v>
       </c>
       <c r="I6">
-        <v>0.1158529650561558</v>
+        <v>0.09959616558694152</v>
       </c>
       <c r="J6">
-        <v>0.1158529650561558</v>
+        <v>0.0995961655869415</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>19.2737616600021</v>
+        <v>19.27491966666667</v>
       </c>
       <c r="N6">
-        <v>19.2737616600021</v>
+        <v>57.824759</v>
       </c>
       <c r="O6">
-        <v>0.3735130060209061</v>
+        <v>0.3709387315842666</v>
       </c>
       <c r="P6">
-        <v>0.3735130060209061</v>
+        <v>0.3709387315842665</v>
       </c>
       <c r="Q6">
-        <v>252.7947722041532</v>
+        <v>255.1043584850129</v>
       </c>
       <c r="R6">
-        <v>252.7947722041532</v>
+        <v>2295.939226365116</v>
       </c>
       <c r="S6">
-        <v>0.04327258923455976</v>
+        <v>0.03694407533347667</v>
       </c>
       <c r="T6">
-        <v>0.04327258923455976</v>
+        <v>0.03694407533347666</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,52 +838,52 @@
         <v>22</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>13.1160059288668</v>
+        <v>13.23504133333333</v>
       </c>
       <c r="H7">
-        <v>13.1160059288668</v>
+        <v>39.705124</v>
       </c>
       <c r="I7">
-        <v>0.1158529650561558</v>
+        <v>0.09959616558694152</v>
       </c>
       <c r="J7">
-        <v>0.1158529650561558</v>
+        <v>0.0995961655869415</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>30.2444954895778</v>
+        <v>30.36285833333334</v>
       </c>
       <c r="N7">
-        <v>30.2444954895778</v>
+        <v>91.08857500000001</v>
       </c>
       <c r="O7">
-        <v>0.5861187154421161</v>
+        <v>0.5843220284293504</v>
       </c>
       <c r="P7">
-        <v>0.5861187154421161</v>
+        <v>0.5843220284293504</v>
       </c>
       <c r="Q7">
-        <v>396.6869821568876</v>
+        <v>401.8536850398111</v>
       </c>
       <c r="R7">
-        <v>396.6869821568876</v>
+        <v>3616.6831653583</v>
       </c>
       <c r="S7">
-        <v>0.06790359105887443</v>
+        <v>0.05819623349954714</v>
       </c>
       <c r="T7">
-        <v>0.06790359105887443</v>
+        <v>0.05819623349954712</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,52 +900,52 @@
         <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>23.0377969471968</v>
+        <v>23.47369766666667</v>
       </c>
       <c r="H8">
-        <v>23.0377969471968</v>
+        <v>70.421093</v>
       </c>
       <c r="I8">
-        <v>0.2034916040118778</v>
+        <v>0.1766439726832589</v>
       </c>
       <c r="J8">
-        <v>0.2034916040118778</v>
+        <v>0.1766439726832589</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>2.08305618975619</v>
+        <v>2.324764666666667</v>
       </c>
       <c r="N8">
-        <v>2.08305618975619</v>
+        <v>6.974294</v>
       </c>
       <c r="O8">
-        <v>0.04036827853697785</v>
+        <v>0.04473923998638302</v>
       </c>
       <c r="P8">
-        <v>0.04036827853697785</v>
+        <v>0.04473923998638301</v>
       </c>
       <c r="Q8">
-        <v>47.98902552920455</v>
+        <v>54.57082293148245</v>
       </c>
       <c r="R8">
-        <v>47.98902552920455</v>
+        <v>491.137406383342</v>
       </c>
       <c r="S8">
-        <v>0.008214605750687883</v>
+        <v>0.007902917086024407</v>
       </c>
       <c r="T8">
-        <v>0.008214605750687883</v>
+        <v>0.007902917086024405</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,52 +962,52 @@
         <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>23.0377969471968</v>
+        <v>23.47369766666667</v>
       </c>
       <c r="H9">
-        <v>23.0377969471968</v>
+        <v>70.421093</v>
       </c>
       <c r="I9">
-        <v>0.2034916040118778</v>
+        <v>0.1766439726832589</v>
       </c>
       <c r="J9">
-        <v>0.2034916040118778</v>
+        <v>0.1766439726832589</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>19.2737616600021</v>
+        <v>19.27491966666667</v>
       </c>
       <c r="N9">
-        <v>19.2737616600021</v>
+        <v>57.824759</v>
       </c>
       <c r="O9">
-        <v>0.3735130060209061</v>
+        <v>0.3709387315842666</v>
       </c>
       <c r="P9">
-        <v>0.3735130060209061</v>
+        <v>0.3709387315842665</v>
       </c>
       <c r="Q9">
-        <v>444.0250075317952</v>
+        <v>452.4536368046208</v>
       </c>
       <c r="R9">
-        <v>444.0250075317952</v>
+        <v>4072.082731241587</v>
       </c>
       <c r="S9">
-        <v>0.07600676071449236</v>
+        <v>0.06552409116913391</v>
       </c>
       <c r="T9">
-        <v>0.07600676071449236</v>
+        <v>0.06552409116913388</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,52 +1024,52 @@
         <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>23.0377969471968</v>
+        <v>23.47369766666667</v>
       </c>
       <c r="H10">
-        <v>23.0377969471968</v>
+        <v>70.421093</v>
       </c>
       <c r="I10">
-        <v>0.2034916040118778</v>
+        <v>0.1766439726832589</v>
       </c>
       <c r="J10">
-        <v>0.2034916040118778</v>
+        <v>0.1766439726832589</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>30.2444954895778</v>
+        <v>30.36285833333334</v>
       </c>
       <c r="N10">
-        <v>30.2444954895778</v>
+        <v>91.08857500000001</v>
       </c>
       <c r="O10">
-        <v>0.5861187154421161</v>
+        <v>0.5843220284293504</v>
       </c>
       <c r="P10">
-        <v>0.5861187154421161</v>
+        <v>0.5843220284293504</v>
       </c>
       <c r="Q10">
-        <v>696.7665458593028</v>
+        <v>712.7285568124972</v>
       </c>
       <c r="R10">
-        <v>696.7665458593028</v>
+        <v>6414.557011312475</v>
       </c>
       <c r="S10">
-        <v>0.1192702375466976</v>
+        <v>0.1032169644281006</v>
       </c>
       <c r="T10">
-        <v>0.1192702375466976</v>
+        <v>0.1032169644281006</v>
       </c>
     </row>
   </sheetData>
